--- a/AliceTalk.xlsx
+++ b/AliceTalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snowy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snowy\Desktop\Projects\AliceTalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:K260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -433,43 +433,43 @@
       </c>
       <c r="B1">
         <f ca="1">INT(RAND()*26)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f t="shared" ref="C1:F16" ca="1" si="0">INT(RAND()*26)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G1" t="str">
-        <f ca="1">INDEX($A:$A,1+_xlfn.MODE.MULT(B:B))</f>
-        <v>h</v>
+        <f ca="1">INDEX($A:$A,INDEX(B:B,RANDBETWEEN(1,260)))</f>
+        <v>f</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ref="H1:K1" ca="1" si="1">INDEX($A:$A,1+_xlfn.MODE.MULT(C:C))</f>
-        <v>x</v>
+        <f t="shared" ref="H1:K1" ca="1" si="1">INDEX($A:$A,INDEX(C:C,RANDBETWEEN(1,260)))</f>
+        <v>o</v>
       </c>
       <c r="I1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>f</v>
+        <v>g</v>
       </c>
       <c r="J1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>s</v>
+        <v>g</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>k</v>
+        <v>p</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -478,15 +478,15 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:F64" ca="1" si="2">INT(RAND()*26)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -503,23 +503,23 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -528,23 +528,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -553,23 +553,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -578,23 +578,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -603,23 +603,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -628,23 +628,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -653,23 +653,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -678,23 +678,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -703,23 +703,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -728,23 +728,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -753,23 +753,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -778,23 +778,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -807,19 +807,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -828,19 +828,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
@@ -853,23 +853,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -878,23 +878,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
         <v>11</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -903,23 +903,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -932,19 +932,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -953,23 +953,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -978,23 +978,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
@@ -1011,15 +1011,15 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1028,23 +1028,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1053,23 +1053,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
         <v>25</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1078,261 +1078,261 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
@@ -1342,29 +1342,29 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
@@ -1372,373 +1372,373 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
@@ -1746,483 +1746,483 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="2"/>
         <v>23</v>
       </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65">
         <f t="shared" ref="B65:F96" ca="1" si="3">INT(RAND()*26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
@@ -2230,103 +2230,103 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
       <c r="F80">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="C81">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.45">
@@ -2336,107 +2336,107 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.45">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
@@ -2454,25 +2454,25 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
@@ -2480,91 +2480,91 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="3"/>
@@ -2574,55 +2574,55 @@
     <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="3"/>
         <v>21</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
       <c r="F95">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
@@ -2630,193 +2630,193 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97">
         <f t="shared" ref="B97:F128" ca="1" si="4">INT(RAND()*26)</f>
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="4"/>
         <v>15</v>
       </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="D97">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
-      </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
-      <c r="C99">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B102">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B103">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B104">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B105">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="4"/>
@@ -2824,131 +2824,131 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B106">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B107">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B108">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B109">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
-      <c r="D109">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="E109">
-        <f t="shared" ca="1" si="4"/>
-        <v>24</v>
-      </c>
       <c r="F109">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B110">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B111">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="4"/>
@@ -2956,73 +2956,73 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B112">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B113">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B114">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="4"/>
@@ -3030,35 +3030,35 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B115">
         <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="C115">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
       <c r="E115">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B116">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="4"/>
@@ -3066,33 +3066,33 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="4"/>
         <v>20</v>
-      </c>
-      <c r="E116">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B117">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="4"/>
@@ -3102,55 +3102,55 @@
     <row r="118" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B118">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B119">
         <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
-      </c>
-      <c r="C119">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="D119">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="E119">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="F119">
-        <f t="shared" ca="1" si="4"/>
-        <v>21</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B120">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="4"/>
@@ -3158,127 +3158,127 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B121">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="4"/>
         <v>20</v>
-      </c>
-      <c r="E121">
-        <f t="shared" ca="1" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B122">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B123">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B124">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B125">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B126">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="4"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="4"/>
@@ -3294,303 +3294,303 @@
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B127">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="4"/>
         <v>21</v>
-      </c>
-      <c r="E127">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F127">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B128">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B129">
         <f t="shared" ref="B129:F160" ca="1" si="5">INT(RAND()*26)</f>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B130">
         <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="C130">
-        <f t="shared" ca="1" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="D130">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="E130">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
       <c r="F130">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B131">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="E131">
-        <f t="shared" ca="1" si="5"/>
-        <v>16</v>
-      </c>
       <c r="F131">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B132">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B133">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B134">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
-      <c r="D134">
-        <f t="shared" ca="1" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="E134">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
-      </c>
       <c r="F134">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B135">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B136">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B137">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B138">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B139">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B140">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="5"/>
@@ -3598,297 +3598,297 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ca="1" si="5"/>
         <v>17</v>
-      </c>
-      <c r="F140">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B141">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="5"/>
         <v>19</v>
-      </c>
-      <c r="F141">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B142">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B143">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B144">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B145">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="E145">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
       <c r="F145">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B146">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B147">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B148">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B149">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B150">
         <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="5"/>
         <v>24</v>
       </c>
-      <c r="C150">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
       <c r="D150">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B151">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B152">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B153">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.45">
@@ -3898,103 +3898,103 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B155">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B156">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="5"/>
         <v>25</v>
       </c>
-      <c r="E156">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
       <c r="F156">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B157">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B158">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="5"/>
@@ -4004,103 +4004,103 @@
     <row r="159" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B159">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B160">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
-      <c r="D160">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
       <c r="E160">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B161">
         <f t="shared" ref="B161:F192" ca="1" si="6">INT(RAND()*26)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B162">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B163">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="6"/>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B164">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="6"/>
@@ -4136,23 +4136,23 @@
     <row r="165" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B165">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.45">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="6"/>
@@ -4170,161 +4170,161 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B167">
         <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="C167">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
       <c r="D167">
         <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F167">
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
-      </c>
-      <c r="E167">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="F167">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B168">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B169">
         <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
-      </c>
-      <c r="C169">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="E169">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="F169">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B170">
         <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="6"/>
         <v>24</v>
       </c>
-      <c r="C170">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
       <c r="D170">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B171">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B172">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
-      </c>
-      <c r="F172">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B173">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="6"/>
@@ -4334,107 +4334,107 @@
     <row r="174" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B174">
         <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
-      <c r="C174">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
       <c r="D174">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B175">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <f t="shared" ca="1" si="6"/>
         <v>22</v>
       </c>
-      <c r="D175">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
       <c r="E175">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B176">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <f t="shared" ca="1" si="6"/>
         <v>23</v>
-      </c>
-      <c r="E176">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F176">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B177">
         <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="6"/>
         <v>23</v>
       </c>
-      <c r="C177">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
       <c r="D177">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B178">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
-      </c>
-      <c r="E178">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="6"/>
@@ -4444,99 +4444,99 @@
     <row r="179" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B179">
         <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="F179">
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
-      </c>
-      <c r="C179">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="D179">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="E179">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="F179">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B180">
         <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <f t="shared" ca="1" si="6"/>
         <v>24</v>
       </c>
-      <c r="C180">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="D180">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
-      </c>
       <c r="E180">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B181">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B182">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="D182">
-        <f t="shared" ca="1" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E182">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
       <c r="F182">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B183">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="6"/>
@@ -4544,83 +4544,83 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B184">
         <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="C184">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="6"/>
         <v>15</v>
       </c>
-      <c r="E184">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
       <c r="F184">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B185">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B186">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B187">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="6"/>
@@ -4628,125 +4628,125 @@
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B188">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B189">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B190">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B191">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B192">
         <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="C192">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D192">
+      <c r="E192">
         <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
-      <c r="E192">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
       <c r="F192">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.45">
@@ -4756,25 +4756,25 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B194">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="7"/>
@@ -4782,263 +4782,263 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B195">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B196">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B197">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B198">
         <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D198">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="C198">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="D198">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="E198">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
       <c r="F198">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B199">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B200">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B201">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B202">
         <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D202">
+        <f t="shared" ca="1" si="7"/>
         <v>24</v>
       </c>
-      <c r="C202">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
       <c r="E202">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B203">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="D203">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="D203">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
-      </c>
       <c r="E203">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B204">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B205">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F205">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B206">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="7"/>
@@ -5046,175 +5046,175 @@
       </c>
       <c r="D206">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B207">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B208">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B209">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ca="1" si="7"/>
         <v>17</v>
       </c>
-      <c r="C209">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
-      </c>
       <c r="D209">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="E209">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
       <c r="F209">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B210">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B211">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B212">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B213">
         <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D213">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="E213">
+        <f t="shared" ca="1" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <f t="shared" ca="1" si="7"/>
         <v>22</v>
-      </c>
-      <c r="C213">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="D213">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="E213">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F213">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B214">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="7"/>
@@ -5222,81 +5222,81 @@
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E214">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B215">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B216">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F216">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B217">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F217">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
-      </c>
-      <c r="C217">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="D217">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="E217">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="F217">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.45">
@@ -5306,69 +5306,69 @@
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D218">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F218">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B219">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D219">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F219">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B220">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F220">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B221">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="7"/>
@@ -5376,157 +5376,157 @@
       </c>
       <c r="D221">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B222">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D222">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F222">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B223">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <f t="shared" ca="1" si="7"/>
         <v>8</v>
-      </c>
-      <c r="C223">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="D223">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="E223">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="F223">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B224">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D224">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F224">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B225">
         <f t="shared" ref="B225:F260" ca="1" si="8">INT(RAND()*26)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="D225">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E225">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
       <c r="F225">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B226">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D226">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F226">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B227">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D227">
+        <f t="shared" ca="1" si="8"/>
         <v>19</v>
       </c>
-      <c r="D227">
-        <f t="shared" ca="1" si="8"/>
-        <v>24</v>
-      </c>
       <c r="E227">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F227">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B228">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="8"/>
@@ -5534,161 +5534,161 @@
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F228">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B229">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F229">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B230">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F230">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B231">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <f t="shared" ca="1" si="8"/>
         <v>7</v>
       </c>
-      <c r="D231">
-        <f t="shared" ca="1" si="8"/>
-        <v>17</v>
-      </c>
       <c r="E231">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F231">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B232">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F232">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B233">
         <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ca="1" si="8"/>
         <v>13</v>
       </c>
-      <c r="C233">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
       <c r="D233">
         <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <f t="shared" ca="1" si="8"/>
         <v>23</v>
-      </c>
-      <c r="E233">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="F233">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B234">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
-      </c>
-      <c r="F234">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B235">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F235">
         <f t="shared" ca="1" si="8"/>
@@ -5698,99 +5698,99 @@
     <row r="236" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B236">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F236">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B237">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F237">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B238">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E238">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="F238">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
-      </c>
-      <c r="E238">
-        <f t="shared" ca="1" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="F238">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B239">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F239">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B240">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="8"/>
@@ -5798,319 +5798,319 @@
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F240">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B241">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F241">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B242">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E242">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F242">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B243">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="F243">
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
-      </c>
-      <c r="E243">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F243">
-        <f t="shared" ca="1" si="8"/>
-        <v>23</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B244">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F244">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B245">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F245">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B246">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D246">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F246">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B247">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D247">
+        <f t="shared" ca="1" si="8"/>
         <v>14</v>
       </c>
-      <c r="D247">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
       <c r="E247">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F247">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B248">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F248">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B249">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E249">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F249">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B250">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F250">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B251">
         <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ca="1" si="8"/>
         <v>16</v>
       </c>
-      <c r="C251">
-        <f t="shared" ca="1" si="8"/>
-        <v>16</v>
-      </c>
       <c r="D251">
         <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E251">
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
       </c>
-      <c r="E251">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
-      </c>
       <c r="F251">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B252">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D252">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F252">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B253">
         <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="8"/>
         <v>12</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <f t="shared" ca="1" si="8"/>
         <v>23</v>
       </c>
-      <c r="D253">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
-      </c>
       <c r="E253">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F253">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B254">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F254">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.45">
@@ -6120,129 +6120,129 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F255">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B256">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="E256">
+        <f t="shared" ca="1" si="8"/>
         <v>16</v>
       </c>
-      <c r="E256">
-        <f t="shared" ca="1" si="8"/>
-        <v>24</v>
-      </c>
       <c r="F256">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B257">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="D257">
+        <f t="shared" ca="1" si="8"/>
         <v>13</v>
       </c>
-      <c r="D257">
-        <f t="shared" ca="1" si="8"/>
-        <v>16</v>
-      </c>
       <c r="E257">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F257">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B258">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F258">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B259">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F259">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B260">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E260">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F260">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
